--- a/GameDesign/Planning_Gr03.xlsx
+++ b/GameDesign/Planning_Gr03.xlsx
@@ -11,14 +11,14 @@
     <sheet name="Général" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$87</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Général!$A$1:$I$104</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="179">
   <si>
     <t>Feature</t>
   </si>
@@ -29,6 +29,9 @@
     <t>Général</t>
   </si>
   <si>
+    <t>Sound</t>
+  </si>
+  <si>
     <t>Interface In Game</t>
   </si>
   <si>
@@ -465,6 +468,93 @@
   </si>
   <si>
     <t>PacScrip</t>
+  </si>
+  <si>
+    <t>StartMusic</t>
+  </si>
+  <si>
+    <t>Music menu start</t>
+  </si>
+  <si>
+    <t>StartButtonSound</t>
+  </si>
+  <si>
+    <t>Son de bouton start</t>
+  </si>
+  <si>
+    <t>AmbiantSound</t>
+  </si>
+  <si>
+    <t>ClickSound</t>
+  </si>
+  <si>
+    <t>StatsSound</t>
+  </si>
+  <si>
+    <t>Son click sous-menu</t>
+  </si>
+  <si>
+    <t>Son d'ambiance</t>
+  </si>
+  <si>
+    <t>Son écran</t>
+  </si>
+  <si>
+    <t>HugSound</t>
+  </si>
+  <si>
+    <t>EatingSound</t>
+  </si>
+  <si>
+    <t>DrinkinSound</t>
+  </si>
+  <si>
+    <t>HittingSound</t>
+  </si>
+  <si>
+    <t>IdleSound</t>
+  </si>
+  <si>
+    <t>EvolutionSound</t>
+  </si>
+  <si>
+    <t>GameoverSound</t>
+  </si>
+  <si>
+    <t>Son de fin</t>
+  </si>
+  <si>
+    <t>PauseMenu</t>
+  </si>
+  <si>
+    <t>PauseSound</t>
+  </si>
+  <si>
+    <t>Musique d'ascenseur</t>
+  </si>
+  <si>
+    <t>CreatePotionSound</t>
+  </si>
+  <si>
+    <t>SelectPotion</t>
+  </si>
+  <si>
+    <t>SelectElement</t>
+  </si>
+  <si>
+    <t>SelectFood</t>
+  </si>
+  <si>
+    <t>FlappSound</t>
+  </si>
+  <si>
+    <t>DeadSound</t>
+  </si>
+  <si>
+    <t>ShoutSound</t>
+  </si>
+  <si>
+    <t>Eatingsound</t>
   </si>
 </sst>
 </file>
@@ -525,7 +615,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -556,8 +646,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="15">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -716,6 +812,19 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -739,7 +848,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -771,7 +880,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
@@ -780,19 +888,20 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -801,6 +910,8 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -808,14 +919,34 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1142,10 +1273,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P105"/>
+  <dimension ref="A1:P126"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D101" sqref="D101"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="E129" sqref="E129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1165,34 +1296,34 @@
         <v>0</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="9"/>
       <c r="G2" s="1"/>
@@ -1206,10 +1337,10 @@
       </c>
       <c r="C3" s="1"/>
       <c r="D3" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F3" s="9"/>
       <c r="G3" s="1"/>
@@ -1223,10 +1354,10 @@
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F4" s="9"/>
       <c r="G4" s="1"/>
@@ -1240,10 +1371,10 @@
       </c>
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="1"/>
@@ -1257,7 +1388,7 @@
       </c>
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="9"/>
@@ -1266,13 +1397,13 @@
       <c r="I6" s="9"/>
     </row>
     <row r="7" spans="1:16" s="48" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
+      <c r="A7" s="39"/>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="45"/>
@@ -1281,18 +1412,18 @@
       <c r="I7" s="45"/>
     </row>
     <row r="8" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="39" t="s">
-        <v>10</v>
+      <c r="A8" s="36" t="s">
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="9"/>
       <c r="G8" s="2"/>
@@ -1300,21 +1431,21 @@
       <c r="I8" s="9"/>
     </row>
     <row r="9" spans="1:16" s="46" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="30"/>
+      <c r="D9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B9" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="E9" s="32" t="s">
-        <v>51</v>
-      </c>
       <c r="F9" s="45"/>
-      <c r="G9" s="32"/>
+      <c r="G9" s="30"/>
       <c r="H9" s="45"/>
       <c r="I9" s="45"/>
       <c r="J9" s="49"/>
@@ -1326,1474 +1457,1796 @@
       <c r="P9" s="47"/>
     </row>
     <row r="10" spans="1:16" s="47" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="42"/>
-      <c r="B10" s="32"/>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="32"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="30"/>
+      <c r="C10" s="30"/>
+      <c r="D10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="E10" s="30"/>
       <c r="F10" s="45"/>
-      <c r="G10" s="32"/>
+      <c r="G10" s="30"/>
       <c r="H10" s="45"/>
       <c r="I10" s="45"/>
     </row>
     <row r="11" spans="1:16" s="47" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="42"/>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E11" s="32"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="30"/>
       <c r="F11" s="45"/>
-      <c r="G11" s="32"/>
+      <c r="G11" s="30"/>
       <c r="H11" s="45"/>
       <c r="I11" s="45"/>
     </row>
     <row r="12" spans="1:16" s="47" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="42"/>
-      <c r="B12" s="32"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="E12" s="32"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E12" s="30"/>
       <c r="F12" s="45"/>
-      <c r="G12" s="32"/>
+      <c r="G12" s="30"/>
       <c r="H12" s="45"/>
       <c r="I12" s="45"/>
     </row>
-    <row r="13" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="34"/>
-      <c r="D13" s="34" t="s">
-        <v>22</v>
-      </c>
-      <c r="E13" s="34" t="s">
+    <row r="13" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="34"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-    </row>
-    <row r="14" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="24" t="s">
+      <c r="E13" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13" s="9"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+    </row>
+    <row r="14" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="36"/>
+      <c r="B14" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41" t="s">
+        <v>152</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>153</v>
+      </c>
+      <c r="F14" s="45"/>
+      <c r="G14" s="41"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+    </row>
+    <row r="15" spans="1:16" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="37"/>
+      <c r="B15" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C15" s="57"/>
+      <c r="D15" s="57" t="s">
+        <v>150</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>151</v>
+      </c>
+      <c r="F15" s="58"/>
+      <c r="G15" s="57"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+    </row>
+    <row r="16" spans="1:16" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="F14" s="22"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-    </row>
-    <row r="15" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-    </row>
-    <row r="16" spans="1:16" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="39"/>
-      <c r="B16" s="25"/>
       <c r="C16" s="4"/>
       <c r="D16" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="E16" s="15"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
+        <v>56</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="21"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="21"/>
+      <c r="I16" s="21"/>
     </row>
     <row r="17" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="39"/>
-      <c r="B17" s="25"/>
+      <c r="A17" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B17" s="24" t="s">
+        <v>1</v>
+      </c>
       <c r="C17" s="4"/>
       <c r="D17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E17" s="15"/>
       <c r="F17" s="9"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="21"/>
+      <c r="I17" s="21"/>
     </row>
     <row r="18" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="39"/>
-      <c r="B18" s="25"/>
+      <c r="A18" s="36"/>
+      <c r="B18" s="24"/>
       <c r="C18" s="4"/>
       <c r="D18" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E18" s="15"/>
       <c r="F18" s="9"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="21"/>
+      <c r="I18" s="21"/>
     </row>
     <row r="19" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" s="25" t="s">
-        <v>1</v>
-      </c>
+      <c r="A19" s="36"/>
+      <c r="B19" s="24"/>
       <c r="C19" s="4"/>
       <c r="D19" s="4" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="E19" s="15"/>
       <c r="F19" s="9"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="21"/>
+      <c r="I19" s="21"/>
     </row>
     <row r="20" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" s="1" t="s">
+      <c r="A20" s="36"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="E20" s="15"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="21"/>
+      <c r="I20" s="21"/>
+    </row>
+    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C20" s="4"/>
-      <c r="D20" s="1" t="s">
+      <c r="C21" s="4"/>
+      <c r="D21" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="1"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-    </row>
-    <row r="21" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="39"/>
-      <c r="B21" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C21" s="6"/>
-      <c r="D21" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="15"/>
       <c r="F21" s="9"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
     </row>
     <row r="22" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="39"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="E22" s="6"/>
+      <c r="A22" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22" s="4"/>
+      <c r="D22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="1"/>
       <c r="F22" s="9"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="21"/>
+      <c r="I22" s="21"/>
     </row>
     <row r="23" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="39"/>
+      <c r="A23" s="36"/>
       <c r="B23" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="E23" s="6" t="s">
-        <v>70</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E23" s="6"/>
       <c r="F23" s="9"/>
       <c r="G23" s="6"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
+      <c r="H23" s="21"/>
+      <c r="I23" s="21"/>
     </row>
     <row r="24" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26" t="s">
+      <c r="A24" s="36"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="9"/>
+      <c r="G24" s="6"/>
+      <c r="H24" s="21"/>
+      <c r="I24" s="21"/>
+    </row>
+    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="36"/>
+      <c r="B25" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="9"/>
+      <c r="G25" s="6"/>
+      <c r="H25" s="21"/>
+      <c r="I25" s="21"/>
+    </row>
+    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="9"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="21"/>
+      <c r="I26" s="21"/>
+    </row>
+    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B27" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="9"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-    </row>
-    <row r="25" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="E25" s="26"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-    </row>
-    <row r="26" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E26" s="27"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="26"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-    </row>
-    <row r="27" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="39"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="25"/>
+      <c r="F27" s="9"/>
+      <c r="G27" s="25"/>
+      <c r="H27" s="21"/>
+      <c r="I27" s="21"/>
+    </row>
+    <row r="28" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B28" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25" t="s">
+        <v>66</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="9"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="21"/>
+      <c r="I28" s="21"/>
+    </row>
+    <row r="29" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="36"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="25"/>
+      <c r="D29" s="25" t="s">
+        <v>60</v>
+      </c>
+      <c r="E29" s="26" t="s">
+        <v>69</v>
+      </c>
+      <c r="F29" s="9"/>
+      <c r="G29" s="25"/>
+      <c r="H29" s="21"/>
+      <c r="I29" s="21"/>
+    </row>
+    <row r="30" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25" t="s">
+        <v>67</v>
+      </c>
+      <c r="E30" s="26"/>
+      <c r="F30" s="9"/>
+      <c r="G30" s="25"/>
+      <c r="H30" s="21"/>
+      <c r="I30" s="21"/>
+    </row>
+    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="F27" s="9"/>
-      <c r="G27" s="26"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-    </row>
-    <row r="28" spans="1:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E28" s="27"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="26"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-    </row>
-    <row r="29" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C29" s="28"/>
-      <c r="D29" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="30"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="19"/>
-      <c r="I29" s="19"/>
-    </row>
-    <row r="30" spans="1:9" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
-        <v>72</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F30" s="31"/>
-      <c r="G30" s="5"/>
-      <c r="H30" s="18"/>
-      <c r="I30" s="18"/>
-    </row>
-    <row r="31" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B31" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="F31" s="8"/>
-      <c r="G31" s="1"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="9"/>
+      <c r="G31" s="30"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
     </row>
     <row r="32" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B32" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="1"/>
+      <c r="A32" s="36"/>
+      <c r="B32" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C32" s="62"/>
+      <c r="D32" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="E32" s="41" t="s">
+        <v>158</v>
+      </c>
+      <c r="F32" s="9"/>
+      <c r="G32" s="41"/>
       <c r="H32" s="9"/>
       <c r="I32" s="9"/>
     </row>
     <row r="33" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="39"/>
-      <c r="B33" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2" t="s">
+      <c r="A33" s="36"/>
+      <c r="B33" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C33" s="62"/>
+      <c r="D33" s="59" t="s">
+        <v>155</v>
+      </c>
+      <c r="E33" s="61" t="s">
+        <v>157</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+    </row>
+    <row r="34" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="36"/>
+      <c r="B34" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="60"/>
+      <c r="D34" s="59" t="s">
+        <v>156</v>
+      </c>
+      <c r="E34" s="61" t="s">
+        <v>159</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+    </row>
+    <row r="35" spans="1:9" ht="14.45" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F35" s="29"/>
+      <c r="G35" s="5"/>
+      <c r="H35" s="18"/>
+      <c r="I35" s="18"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="F36" s="8"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="9"/>
+      <c r="I36" s="9"/>
+    </row>
+    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="E33" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F33" s="10"/>
-      <c r="G33" s="6"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="22"/>
-    </row>
-    <row r="34" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="39"/>
-      <c r="B34" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="10"/>
-      <c r="G34" s="6"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="22"/>
-    </row>
-    <row r="35" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="39"/>
-      <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="F35" s="10"/>
-      <c r="G35" s="6"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="22"/>
-    </row>
-    <row r="36" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="39"/>
-      <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-      <c r="D36" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="F36" s="10"/>
-      <c r="G36" s="6"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="22"/>
-    </row>
-    <row r="37" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="F37" s="10"/>
-      <c r="G37" s="6"/>
+      <c r="F37" s="8"/>
+      <c r="G37" s="1"/>
       <c r="H37" s="9"/>
-      <c r="I37" s="22"/>
+      <c r="I37" s="9"/>
     </row>
     <row r="38" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="2"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F38" s="10"/>
       <c r="G38" s="6"/>
       <c r="H38" s="9"/>
-      <c r="I38" s="22"/>
+      <c r="I38" s="21"/>
     </row>
     <row r="39" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="2"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="E39" s="2"/>
+        <v>81</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>86</v>
+      </c>
       <c r="F39" s="10"/>
       <c r="G39" s="6"/>
       <c r="H39" s="9"/>
-      <c r="I39" s="22"/>
+      <c r="I39" s="21"/>
     </row>
     <row r="40" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
+      <c r="A40" s="36"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
       <c r="D40" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="E40" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>87</v>
+      </c>
       <c r="F40" s="10"/>
       <c r="G40" s="6"/>
       <c r="H40" s="9"/>
-      <c r="I40" s="22"/>
+      <c r="I40" s="21"/>
     </row>
     <row r="41" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
+      <c r="A41" s="36"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
       <c r="D41" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" s="2"/>
+        <v>83</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>88</v>
+      </c>
       <c r="F41" s="10"/>
       <c r="G41" s="6"/>
       <c r="H41" s="9"/>
-      <c r="I41" s="22"/>
+      <c r="I41" s="21"/>
     </row>
     <row r="42" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
+      <c r="A42" s="36"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
       <c r="D42" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="E42" s="2"/>
+        <v>84</v>
+      </c>
+      <c r="E42" s="2" t="s">
+        <v>89</v>
+      </c>
       <c r="F42" s="10"/>
       <c r="G42" s="6"/>
       <c r="H42" s="9"/>
-      <c r="I42" s="22"/>
+      <c r="I42" s="21"/>
     </row>
     <row r="43" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
+      <c r="A43" s="36"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
       <c r="D43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="E43" s="2"/>
+        <v>90</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>91</v>
+      </c>
       <c r="F43" s="10"/>
       <c r="G43" s="6"/>
       <c r="H43" s="9"/>
-      <c r="I43" s="22"/>
+      <c r="I43" s="21"/>
     </row>
     <row r="44" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="39"/>
+      <c r="A44" s="36"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
       <c r="D44" s="2" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="10"/>
       <c r="G44" s="6"/>
       <c r="H44" s="9"/>
-      <c r="I44" s="22"/>
+      <c r="I44" s="21"/>
     </row>
     <row r="45" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="39"/>
+      <c r="A45" s="36"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
       <c r="D45" s="2" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="10"/>
       <c r="G45" s="6"/>
       <c r="H45" s="9"/>
-      <c r="I45" s="22"/>
+      <c r="I45" s="21"/>
     </row>
     <row r="46" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="39"/>
+      <c r="A46" s="36"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
       <c r="D46" s="2" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="10"/>
       <c r="G46" s="6"/>
       <c r="H46" s="9"/>
-      <c r="I46" s="22"/>
+      <c r="I46" s="21"/>
     </row>
     <row r="47" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="39"/>
+      <c r="A47" s="36"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
       <c r="D47" s="2" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="10"/>
       <c r="G47" s="6"/>
       <c r="H47" s="9"/>
-      <c r="I47" s="22"/>
+      <c r="I47" s="21"/>
     </row>
     <row r="48" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="39"/>
+      <c r="A48" s="36"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
       <c r="D48" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="10"/>
       <c r="G48" s="6"/>
       <c r="H48" s="9"/>
-      <c r="I48" s="22"/>
+      <c r="I48" s="21"/>
     </row>
     <row r="49" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="39"/>
+      <c r="A49" s="36"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
       <c r="D49" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="10"/>
       <c r="G49" s="6"/>
       <c r="H49" s="9"/>
-      <c r="I49" s="22"/>
+      <c r="I49" s="21"/>
     </row>
     <row r="50" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="39"/>
+      <c r="A50" s="36"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
       <c r="D50" s="2" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="10"/>
       <c r="G50" s="6"/>
       <c r="H50" s="9"/>
-      <c r="I50" s="22"/>
+      <c r="I50" s="21"/>
     </row>
     <row r="51" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="39"/>
+      <c r="A51" s="36"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
       <c r="D51" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="10"/>
       <c r="G51" s="6"/>
       <c r="H51" s="9"/>
-      <c r="I51" s="22"/>
+      <c r="I51" s="21"/>
     </row>
     <row r="52" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="39"/>
+      <c r="A52" s="36"/>
       <c r="B52" s="2"/>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2" t="s">
+        <v>101</v>
+      </c>
       <c r="E52" s="2"/>
       <c r="F52" s="10"/>
       <c r="G52" s="6"/>
       <c r="H52" s="9"/>
-      <c r="I52" s="22"/>
+      <c r="I52" s="21"/>
     </row>
     <row r="53" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B53" s="32" t="s">
+      <c r="A53" s="36"/>
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="2"/>
+      <c r="F53" s="10"/>
+      <c r="G53" s="6"/>
+      <c r="H53" s="9"/>
+      <c r="I53" s="21"/>
+    </row>
+    <row r="54" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="36"/>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="2"/>
+      <c r="F54" s="10"/>
+      <c r="G54" s="6"/>
+      <c r="H54" s="9"/>
+      <c r="I54" s="21"/>
+    </row>
+    <row r="55" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="36"/>
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="6"/>
+      <c r="H55" s="9"/>
+      <c r="I55" s="21"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="36"/>
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="10"/>
+      <c r="G56" s="6"/>
+      <c r="H56" s="9"/>
+      <c r="I56" s="21"/>
+    </row>
+    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="36"/>
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="10"/>
+      <c r="G57" s="6"/>
+      <c r="H57" s="9"/>
+      <c r="I57" s="21"/>
+    </row>
+    <row r="58" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="B58" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C58" s="30"/>
+      <c r="D58" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="E58" s="30"/>
+      <c r="F58" s="10"/>
+      <c r="G58" s="25"/>
+      <c r="H58" s="9"/>
+      <c r="I58" s="21"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="36"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="30"/>
+      <c r="D59" s="30" t="s">
+        <v>108</v>
+      </c>
+      <c r="E59" s="30"/>
+      <c r="F59" s="10"/>
+      <c r="G59" s="25"/>
+      <c r="H59" s="9"/>
+      <c r="I59" s="21"/>
+    </row>
+    <row r="60" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="36"/>
+      <c r="B60" s="30"/>
+      <c r="C60" s="30"/>
+      <c r="D60" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="E60" s="30"/>
+      <c r="F60" s="10"/>
+      <c r="G60" s="25"/>
+      <c r="H60" s="9"/>
+      <c r="I60" s="21"/>
+    </row>
+    <row r="61" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="36"/>
+      <c r="B61" s="30"/>
+      <c r="C61" s="30"/>
+      <c r="D61" s="30" t="s">
+        <v>110</v>
+      </c>
+      <c r="E61" s="30"/>
+      <c r="F61" s="10"/>
+      <c r="G61" s="25"/>
+      <c r="H61" s="9"/>
+      <c r="I61" s="21"/>
+    </row>
+    <row r="62" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B62" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C62" s="30"/>
+      <c r="D62" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="E62" s="30"/>
+      <c r="F62" s="8"/>
+      <c r="G62" s="30"/>
+      <c r="H62" s="9"/>
+      <c r="I62" s="21"/>
+    </row>
+    <row r="63" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="B63" s="67" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63" s="30"/>
+      <c r="D63" s="30" t="s">
+        <v>106</v>
+      </c>
+      <c r="E63" s="30"/>
+      <c r="F63" s="8"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="9"/>
+      <c r="I63" s="9"/>
+    </row>
+    <row r="64" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="38"/>
+      <c r="B64" s="66" t="s">
+        <v>3</v>
+      </c>
+      <c r="C64" s="41"/>
+      <c r="D64" s="41" t="s">
+        <v>161</v>
+      </c>
+      <c r="E64" s="41"/>
+      <c r="F64" s="8"/>
+      <c r="G64" s="41"/>
+      <c r="H64" s="9"/>
+      <c r="I64" s="9"/>
+    </row>
+    <row r="65" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="36"/>
+      <c r="B65" s="41"/>
+      <c r="C65" s="41"/>
+      <c r="D65" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="E65" s="41"/>
+      <c r="F65" s="8"/>
+      <c r="G65" s="41"/>
+      <c r="H65" s="9"/>
+      <c r="I65" s="9"/>
+    </row>
+    <row r="66" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="36"/>
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59" t="s">
+        <v>165</v>
+      </c>
+      <c r="E66" s="61"/>
+      <c r="F66" s="42"/>
+      <c r="G66" s="41"/>
+      <c r="H66" s="9"/>
+      <c r="I66" s="9"/>
+    </row>
+    <row r="67" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="38"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="41"/>
+      <c r="D67" s="41" t="s">
+        <v>164</v>
+      </c>
+      <c r="E67" s="64"/>
+      <c r="F67" s="8"/>
+      <c r="G67" s="59"/>
+      <c r="H67" s="19"/>
+      <c r="I67" s="19"/>
+    </row>
+    <row r="68" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="38"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="41"/>
+      <c r="D68" s="41" t="s">
+        <v>163</v>
+      </c>
+      <c r="E68" s="64"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="41"/>
+      <c r="H68" s="9"/>
+      <c r="I68" s="9"/>
+    </row>
+    <row r="69" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="37"/>
+      <c r="B69" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="E69" s="63"/>
+      <c r="F69" s="31"/>
+      <c r="G69" s="57"/>
+      <c r="H69" s="20"/>
+      <c r="I69" s="20"/>
+    </row>
+    <row r="70" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A70" s="68" t="s">
+        <v>112</v>
+      </c>
+      <c r="B70" s="34" t="s">
+        <v>17</v>
+      </c>
+      <c r="C70" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D70" s="34" t="s">
+        <v>113</v>
+      </c>
+      <c r="E70" s="34" t="s">
+        <v>114</v>
+      </c>
+      <c r="F70" s="29"/>
+      <c r="G70" s="34"/>
+      <c r="H70" s="29"/>
+      <c r="I70" s="29"/>
+    </row>
+    <row r="71" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="43"/>
+      <c r="B71" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57" t="s">
+        <v>166</v>
+      </c>
+      <c r="E71" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="F71" s="33"/>
+      <c r="G71" s="57"/>
+      <c r="H71" s="33"/>
+      <c r="I71" s="33"/>
+    </row>
+    <row r="72" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="C53" s="32"/>
-      <c r="D53" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="E53" s="32"/>
-      <c r="F53" s="10"/>
-      <c r="G53" s="26"/>
-      <c r="H53" s="9"/>
-      <c r="I53" s="22"/>
-    </row>
-    <row r="54" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="39"/>
-      <c r="B54" s="32"/>
-      <c r="C54" s="32"/>
-      <c r="D54" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="E54" s="32"/>
-      <c r="F54" s="10"/>
-      <c r="G54" s="26"/>
-      <c r="H54" s="9"/>
-      <c r="I54" s="22"/>
-    </row>
-    <row r="55" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="39"/>
-      <c r="B55" s="32"/>
-      <c r="C55" s="32"/>
-      <c r="D55" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="E55" s="32"/>
-      <c r="F55" s="10"/>
-      <c r="G55" s="26"/>
-      <c r="H55" s="9"/>
-      <c r="I55" s="22"/>
-    </row>
-    <row r="56" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A56" s="39"/>
-      <c r="B56" s="32"/>
-      <c r="C56" s="32"/>
-      <c r="D56" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="E56" s="32"/>
-      <c r="F56" s="10"/>
-      <c r="G56" s="26"/>
-      <c r="H56" s="9"/>
-      <c r="I56" s="22"/>
-    </row>
-    <row r="57" spans="1:9" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
-        <v>14</v>
-      </c>
-      <c r="B57" s="32" t="s">
+      <c r="B72" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C72" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D72" s="25" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="10"/>
+      <c r="G72" s="25"/>
+      <c r="H72" s="10"/>
+      <c r="I72" s="10"/>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A73" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C57" s="32"/>
-      <c r="D57" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="E57" s="32"/>
-      <c r="F57" s="8"/>
-      <c r="G57" s="32"/>
-      <c r="H57" s="9"/>
-      <c r="I57" s="22"/>
-    </row>
-    <row r="58" spans="1:9" ht="14.45" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="40" t="s">
-        <v>14</v>
-      </c>
-      <c r="B58" s="34" t="s">
+      <c r="B73" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C73" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D73" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E73" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="F73" s="10"/>
+      <c r="G73" s="25"/>
+      <c r="H73" s="10"/>
+      <c r="I73" s="10"/>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A74" s="36" t="s">
         <v>16</v>
       </c>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34" t="s">
-        <v>105</v>
-      </c>
-      <c r="E58" s="35"/>
-      <c r="F58" s="33"/>
-      <c r="G58" s="34"/>
-      <c r="H58" s="20"/>
-      <c r="I58" s="20"/>
-    </row>
-    <row r="59" spans="1:9" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="43" t="s">
-        <v>111</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C59" s="28" t="s">
+      <c r="B74" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D59" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F59" s="11"/>
-      <c r="G59" s="28"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11"/>
-    </row>
-    <row r="60" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B60" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C60" s="26" t="s">
+      <c r="C74" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D74" s="25" t="s">
+        <v>19</v>
+      </c>
+      <c r="E74" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="F74" s="10"/>
+      <c r="G74" s="25"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A75" s="38"/>
+      <c r="B75" s="67" t="s">
         <v>17</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="E60" s="27" t="s">
+      <c r="C75" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D75" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="F60" s="10"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B61" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D61" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E61" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="F61" s="10"/>
-      <c r="G61" s="26"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="10"/>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="B62" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D62" s="26" t="s">
-        <v>18</v>
-      </c>
-      <c r="E62" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="F62" s="10"/>
-      <c r="G62" s="26"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="10"/>
-    </row>
-    <row r="63" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A63" s="40" t="s">
-        <v>15</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C63" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D63" s="28" t="s">
-        <v>27</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>29</v>
-      </c>
-      <c r="F63" s="11"/>
-      <c r="G63" s="28"/>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11"/>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="B64" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="D64" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="F64" s="10"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="10"/>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A65" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B65" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C65" s="32" t="s">
-        <v>17</v>
-      </c>
-      <c r="D65" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="E65" s="32" t="s">
-        <v>35</v>
-      </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="32"/>
-      <c r="H65" s="8"/>
-      <c r="I65" s="8"/>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
-        <v>31</v>
-      </c>
-      <c r="B66" s="25" t="s">
-        <v>1</v>
-      </c>
-      <c r="C66" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D66" s="25" t="s">
-        <v>36</v>
-      </c>
-      <c r="E66" s="25" t="s">
-        <v>39</v>
-      </c>
-      <c r="F66" s="38"/>
-      <c r="G66" s="25"/>
-      <c r="H66" s="38"/>
-      <c r="I66" s="38"/>
-    </row>
-    <row r="67" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A67" s="40" t="s">
-        <v>31</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C67" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="D67" s="28" t="s">
-        <v>38</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="F67" s="11"/>
-      <c r="G67" s="28"/>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11"/>
-    </row>
-    <row r="68" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C68" s="1"/>
-      <c r="D68" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="1"/>
-      <c r="H68" s="8"/>
-      <c r="I68" s="8"/>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A69" s="44"/>
-      <c r="B69" s="4"/>
-      <c r="C69" s="1"/>
-      <c r="D69" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="E69" s="7"/>
-      <c r="F69" s="8"/>
-      <c r="G69" s="1"/>
-      <c r="H69" s="8"/>
-      <c r="I69" s="8"/>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B70" s="1"/>
-      <c r="C70" s="1"/>
-      <c r="D70" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="E70" s="7"/>
-      <c r="F70" s="8"/>
-      <c r="G70" s="1"/>
-      <c r="H70" s="8"/>
-      <c r="I70" s="8"/>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B71" s="32" t="s">
-        <v>16</v>
-      </c>
-      <c r="C71" s="32"/>
-      <c r="D71" s="32" t="s">
-        <v>115</v>
-      </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="8"/>
-      <c r="G71" s="32"/>
-      <c r="H71" s="8"/>
-      <c r="I71" s="8"/>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B72" s="32"/>
-      <c r="C72" s="32"/>
-      <c r="D72" s="32" t="s">
-        <v>116</v>
-      </c>
-      <c r="E72" s="36"/>
-      <c r="F72" s="8"/>
-      <c r="G72" s="32"/>
-      <c r="H72" s="8"/>
-      <c r="I72" s="8"/>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B73" s="32"/>
-      <c r="C73" s="32"/>
-      <c r="D73" s="32" t="s">
-        <v>118</v>
-      </c>
-      <c r="E73" s="36" t="s">
-        <v>119</v>
-      </c>
-      <c r="F73" s="8"/>
-      <c r="G73" s="32"/>
-      <c r="H73" s="8"/>
-      <c r="I73" s="8"/>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B74" s="32"/>
-      <c r="C74" s="32"/>
-      <c r="D74" s="32" t="s">
-        <v>117</v>
-      </c>
-      <c r="E74" s="36"/>
-      <c r="F74" s="8"/>
-      <c r="G74" s="32"/>
-      <c r="H74" s="8"/>
-      <c r="I74" s="8"/>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B75" s="32"/>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="E75" s="36" t="s">
-        <v>121</v>
+      <c r="E75" s="30" t="s">
+        <v>30</v>
       </c>
       <c r="F75" s="8"/>
-      <c r="G75" s="32"/>
+      <c r="G75" s="30"/>
       <c r="H75" s="8"/>
       <c r="I75" s="8"/>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B76" s="32"/>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32" t="s">
-        <v>123</v>
-      </c>
-      <c r="E76" s="36" t="s">
-        <v>122</v>
-      </c>
+      <c r="A76" s="38"/>
+      <c r="B76" s="69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E76" s="1"/>
       <c r="F76" s="8"/>
-      <c r="G76" s="32"/>
+      <c r="G76" s="1"/>
       <c r="H76" s="8"/>
       <c r="I76" s="8"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A77" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="B77" s="32"/>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32" t="s">
-        <v>124</v>
-      </c>
-      <c r="E77" s="36" t="s">
-        <v>125</v>
-      </c>
-      <c r="F77" s="8"/>
-      <c r="G77" s="32"/>
-      <c r="H77" s="8"/>
-      <c r="I77" s="8"/>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A78" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B78" s="26"/>
-      <c r="C78" s="26"/>
-      <c r="D78" s="26" t="s">
-        <v>126</v>
-      </c>
-      <c r="E78" s="27" t="s">
-        <v>127</v>
+    <row r="77" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="37"/>
+      <c r="B77" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="E77" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="F77" s="33"/>
+      <c r="G77" s="57"/>
+      <c r="H77" s="33"/>
+      <c r="I77" s="33"/>
+    </row>
+    <row r="78" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B78" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C78" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D78" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="E78" s="25" t="s">
+        <v>34</v>
       </c>
       <c r="F78" s="10"/>
-      <c r="G78" s="26"/>
+      <c r="G78" s="25"/>
       <c r="H78" s="10"/>
       <c r="I78" s="10"/>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A79" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B79" s="26"/>
-      <c r="C79" s="26"/>
-      <c r="D79" s="26" t="s">
+      <c r="A79" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B79" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="D79" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="E79" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="F79" s="8"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="8"/>
+      <c r="I79" s="8"/>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B80" s="24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="E80" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="F80" s="35"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+    </row>
+    <row r="81" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="37" t="s">
+        <v>32</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>17</v>
+      </c>
+      <c r="C81" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" s="27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E81" s="27" t="s">
+        <v>38</v>
+      </c>
+      <c r="F81" s="11"/>
+      <c r="G81" s="27"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11"/>
+    </row>
+    <row r="82" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82" s="1"/>
+      <c r="D82" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="E82" s="7"/>
+      <c r="F82" s="8"/>
+      <c r="G82" s="1"/>
+      <c r="H82" s="8"/>
+      <c r="I82" s="8"/>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A83" s="44"/>
+      <c r="B83" s="4"/>
+      <c r="C83" s="1"/>
+      <c r="D83" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E83" s="7"/>
+      <c r="F83" s="8"/>
+      <c r="G83" s="1"/>
+      <c r="H83" s="8"/>
+      <c r="I83" s="8"/>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A84" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B84" s="1"/>
+      <c r="C84" s="1"/>
+      <c r="D84" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E84" s="7"/>
+      <c r="F84" s="8"/>
+      <c r="G84" s="1"/>
+      <c r="H84" s="8"/>
+      <c r="I84" s="8"/>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A85" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B85" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C85" s="30"/>
+      <c r="D85" s="30" t="s">
+        <v>116</v>
+      </c>
+      <c r="E85" s="32"/>
+      <c r="F85" s="8"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="8"/>
+      <c r="I85" s="8"/>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A86" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B86" s="30"/>
+      <c r="C86" s="30"/>
+      <c r="D86" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="E86" s="32"/>
+      <c r="F86" s="8"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="8"/>
+      <c r="I86" s="8"/>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A87" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B87" s="30"/>
+      <c r="C87" s="30"/>
+      <c r="D87" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="E87" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F87" s="8"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="8"/>
+      <c r="I87" s="8"/>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A88" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B88" s="30"/>
+      <c r="C88" s="30"/>
+      <c r="D88" s="30" t="s">
+        <v>118</v>
+      </c>
+      <c r="E88" s="32"/>
+      <c r="F88" s="8"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="8"/>
+      <c r="I88" s="8"/>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B89" s="30"/>
+      <c r="C89" s="30"/>
+      <c r="D89" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="E89" s="32" t="s">
+        <v>122</v>
+      </c>
+      <c r="F89" s="8"/>
+      <c r="G89" s="30"/>
+      <c r="H89" s="8"/>
+      <c r="I89" s="8"/>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A90" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B90" s="30"/>
+      <c r="C90" s="30"/>
+      <c r="D90" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="E90" s="32" t="s">
+        <v>123</v>
+      </c>
+      <c r="F90" s="8"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="8"/>
+      <c r="I90" s="8"/>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A91" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B91" s="30"/>
+      <c r="C91" s="30"/>
+      <c r="D91" s="30" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="32" t="s">
+        <v>126</v>
+      </c>
+      <c r="F91" s="8"/>
+      <c r="G91" s="30"/>
+      <c r="H91" s="8"/>
+      <c r="I91" s="8"/>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A92" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B92" s="25"/>
+      <c r="C92" s="25"/>
+      <c r="D92" s="25" t="s">
+        <v>127</v>
+      </c>
+      <c r="E92" s="26" t="s">
         <v>128</v>
       </c>
-      <c r="E79" s="27" t="s">
-        <v>129</v>
-      </c>
-      <c r="F79" s="10"/>
-      <c r="G79" s="26"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="10"/>
-    </row>
-    <row r="80" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B80" s="34"/>
-      <c r="C80" s="34"/>
-      <c r="D80" s="29"/>
-      <c r="E80" s="30"/>
-      <c r="F80" s="37"/>
-      <c r="G80" s="34"/>
-      <c r="H80" s="37"/>
-      <c r="I80" s="37"/>
-    </row>
-    <row r="81" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A81" s="14" t="s">
-        <v>130</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D81" s="5" t="s">
-        <v>134</v>
-      </c>
-      <c r="E81" s="5"/>
-      <c r="F81" s="10"/>
-      <c r="G81" s="4"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="10"/>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A82" s="13"/>
-      <c r="B82" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C82" s="6"/>
-      <c r="D82" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E82" s="23"/>
-      <c r="F82" s="50"/>
-      <c r="G82" s="6"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="10"/>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A83" s="13"/>
-      <c r="B83" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C83" s="51"/>
-      <c r="D83" s="52" t="s">
-        <v>141</v>
-      </c>
-      <c r="E83" s="53"/>
-      <c r="F83" s="50"/>
-      <c r="G83" s="6"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="10"/>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A84" s="13"/>
-      <c r="B84" s="51"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="52" t="s">
-        <v>142</v>
-      </c>
-      <c r="E84" s="53"/>
-      <c r="F84" s="50"/>
-      <c r="G84" s="6"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="10"/>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A85" s="13"/>
-      <c r="B85" s="32"/>
-      <c r="C85" s="32"/>
-      <c r="D85" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E85" s="27"/>
-      <c r="F85" s="50"/>
-      <c r="G85" s="6"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="10"/>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A86" s="13"/>
-      <c r="B86" s="29"/>
-      <c r="C86" s="29"/>
-      <c r="D86" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E86" s="27"/>
-      <c r="F86" s="50"/>
-      <c r="G86" s="6"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="10"/>
-    </row>
-    <row r="87" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="39" t="s">
-        <v>3</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C87" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D87" s="26" t="s">
-        <v>132</v>
-      </c>
-      <c r="E87" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F87" s="10"/>
-      <c r="G87" s="26"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="10"/>
-    </row>
-    <row r="88" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="14" t="s">
-        <v>137</v>
-      </c>
-      <c r="B88" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="D88" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="E88" s="5"/>
-      <c r="F88" s="10"/>
-      <c r="G88" s="4"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="10"/>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A89" s="13"/>
-      <c r="B89" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C89" s="6"/>
-      <c r="D89" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E89" s="23"/>
-      <c r="F89" s="50"/>
-      <c r="G89" s="6"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="10"/>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A90" s="13"/>
-      <c r="B90" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="E90" s="23"/>
-      <c r="F90" s="50"/>
-      <c r="G90" s="6"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="10"/>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A91" s="13"/>
-      <c r="B91" s="51" t="s">
-        <v>1</v>
-      </c>
-      <c r="C91" s="51"/>
-      <c r="D91" s="52" t="s">
-        <v>145</v>
-      </c>
-      <c r="E91" s="53"/>
-      <c r="F91" s="50"/>
-      <c r="G91" s="6"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A92" s="13"/>
-      <c r="B92" s="51"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="52" t="s">
-        <v>146</v>
-      </c>
-      <c r="E92" s="53"/>
-      <c r="F92" s="50"/>
-      <c r="G92" s="6"/>
+      <c r="F92" s="10"/>
+      <c r="G92" s="25"/>
       <c r="H92" s="10"/>
       <c r="I92" s="10"/>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A93" s="13"/>
-      <c r="B93" s="32"/>
-      <c r="C93" s="32"/>
-      <c r="D93" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E93" s="27"/>
-      <c r="F93" s="50"/>
-      <c r="G93" s="6"/>
+      <c r="A93" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B93" s="25"/>
+      <c r="C93" s="25"/>
+      <c r="D93" s="25" t="s">
+        <v>129</v>
+      </c>
+      <c r="E93" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="F93" s="10"/>
+      <c r="G93" s="25"/>
       <c r="H93" s="10"/>
       <c r="I93" s="10"/>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A94" s="13"/>
-      <c r="B94" s="29"/>
-      <c r="C94" s="29"/>
-      <c r="D94" s="26" t="s">
-        <v>144</v>
-      </c>
-      <c r="E94" s="27"/>
-      <c r="F94" s="50"/>
-      <c r="G94" s="6"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="10"/>
-    </row>
-    <row r="95" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="39" t="s">
+      <c r="A94" s="36"/>
+      <c r="B94" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="B95" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C95" s="28" t="s">
+      <c r="C94" s="41"/>
+      <c r="D94" s="41" t="s">
+        <v>174</v>
+      </c>
+      <c r="E94" s="64"/>
+      <c r="F94" s="8"/>
+      <c r="G94" s="41"/>
+      <c r="H94" s="8"/>
+      <c r="I94" s="8"/>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A95" s="36"/>
+      <c r="B95" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C95" s="41"/>
+      <c r="D95" s="41" t="s">
+        <v>173</v>
+      </c>
+      <c r="E95" s="64"/>
+      <c r="F95" s="8"/>
+      <c r="G95" s="41"/>
+      <c r="H95" s="8"/>
+      <c r="I95" s="8"/>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A96" s="36"/>
+      <c r="B96" s="41" t="s">
+        <v>3</v>
+      </c>
+      <c r="C96" s="41"/>
+      <c r="D96" s="41" t="s">
+        <v>172</v>
+      </c>
+      <c r="E96" s="64"/>
+      <c r="F96" s="8"/>
+      <c r="G96" s="41"/>
+      <c r="H96" s="8"/>
+      <c r="I96" s="8"/>
+    </row>
+    <row r="97" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B97" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C97" s="57"/>
+      <c r="D97" s="59" t="s">
+        <v>171</v>
+      </c>
+      <c r="E97" s="61"/>
+      <c r="F97" s="33"/>
+      <c r="G97" s="57"/>
+      <c r="H97" s="33"/>
+      <c r="I97" s="33"/>
+    </row>
+    <row r="98" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A98" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="D95" s="26" t="s">
-        <v>147</v>
-      </c>
-      <c r="E95" s="27" t="s">
-        <v>133</v>
-      </c>
-      <c r="F95" s="10"/>
-      <c r="G95" s="26"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="10"/>
-    </row>
-    <row r="96" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="B96" s="4" t="s">
+      <c r="B98" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="E96" s="5"/>
-      <c r="F96" s="10"/>
-      <c r="G96" s="4"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="10"/>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A97" s="13"/>
-      <c r="B97" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C97" s="6"/>
-      <c r="D97" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="E97" s="23"/>
-      <c r="F97" s="50"/>
-      <c r="G97" s="6"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="10"/>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A98" s="13"/>
-      <c r="B98" s="6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C98" s="6"/>
-      <c r="D98" s="6" t="s">
+      <c r="D98" s="5" t="s">
         <v>135</v>
       </c>
-      <c r="E98" s="23"/>
-      <c r="F98" s="50"/>
-      <c r="G98" s="6"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="10"/>
+      <c r="G98" s="4"/>
       <c r="H98" s="10"/>
       <c r="I98" s="10"/>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B99" s="51" t="s">
+      <c r="A99" s="13"/>
+      <c r="B99" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C99" s="6"/>
+      <c r="D99" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E99" s="22"/>
+      <c r="F99" s="50"/>
+      <c r="G99" s="6"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A100" s="13"/>
+      <c r="B100" s="53" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="51"/>
-      <c r="D99" s="52" t="s">
+      <c r="C100" s="53"/>
+      <c r="D100" s="54" t="s">
+        <v>142</v>
+      </c>
+      <c r="E100" s="55"/>
+      <c r="F100" s="50"/>
+      <c r="G100" s="6"/>
+      <c r="H100" s="10"/>
+      <c r="I100" s="10"/>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A101" s="13"/>
+      <c r="B101" s="53"/>
+      <c r="C101" s="53"/>
+      <c r="D101" s="54" t="s">
+        <v>143</v>
+      </c>
+      <c r="E101" s="55"/>
+      <c r="F101" s="50"/>
+      <c r="G101" s="6"/>
+      <c r="H101" s="10"/>
+      <c r="I101" s="10"/>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A102" s="13"/>
+      <c r="B102" s="30"/>
+      <c r="C102" s="30"/>
+      <c r="D102" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E102" s="26"/>
+      <c r="F102" s="50"/>
+      <c r="G102" s="6"/>
+      <c r="H102" s="10"/>
+      <c r="I102" s="10"/>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A103" s="13"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="28"/>
+      <c r="D103" s="25" t="s">
         <v>145</v>
       </c>
-      <c r="E99" s="53"/>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B100" s="51"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="52" t="s">
+      <c r="E103" s="26"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="6"/>
+      <c r="H103" s="10"/>
+      <c r="I103" s="10"/>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A104" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B104" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C104" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D104" s="25" t="s">
+        <v>133</v>
+      </c>
+      <c r="E104" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F104" s="10"/>
+      <c r="G104" s="25"/>
+      <c r="H104" s="10"/>
+      <c r="I104" s="10"/>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A105" s="36"/>
+      <c r="B105" s="62" t="s">
+        <v>3</v>
+      </c>
+      <c r="C105" s="62"/>
+      <c r="D105" s="51" t="s">
+        <v>176</v>
+      </c>
+      <c r="E105" s="52"/>
+      <c r="F105" s="50"/>
+      <c r="G105" s="51"/>
+      <c r="H105" s="10"/>
+      <c r="I105" s="10"/>
+    </row>
+    <row r="106" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A106" s="36"/>
+      <c r="B106" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="C106" s="60"/>
+      <c r="D106" s="41" t="s">
+        <v>175</v>
+      </c>
+      <c r="E106" s="64"/>
+      <c r="F106" s="8"/>
+      <c r="G106" s="41"/>
+      <c r="H106" s="8"/>
+      <c r="I106" s="8"/>
+    </row>
+    <row r="107" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A107" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="E107" s="5"/>
+      <c r="F107" s="10"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="10"/>
+      <c r="I107" s="10"/>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A108" s="13"/>
+      <c r="B108" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C108" s="6"/>
+      <c r="D108" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E108" s="22"/>
+      <c r="F108" s="50"/>
+      <c r="G108" s="6"/>
+      <c r="H108" s="10"/>
+      <c r="I108" s="10"/>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A109" s="13"/>
+      <c r="B109" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="6"/>
+      <c r="D109" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E109" s="22"/>
+      <c r="F109" s="50"/>
+      <c r="G109" s="6"/>
+      <c r="H109" s="10"/>
+      <c r="I109" s="10"/>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A110" s="13"/>
+      <c r="B110" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C110" s="53"/>
+      <c r="D110" s="54" t="s">
         <v>146</v>
       </c>
-      <c r="E100" s="53"/>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B101" s="32"/>
-      <c r="C101" s="32"/>
-      <c r="D101" s="26" t="s">
-        <v>143</v>
-      </c>
-      <c r="E101" s="27"/>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B102" s="29"/>
-      <c r="C102" s="29"/>
-      <c r="D102" s="26" t="s">
+      <c r="E110" s="55"/>
+      <c r="F110" s="50"/>
+      <c r="G110" s="6"/>
+      <c r="H110" s="10"/>
+      <c r="I110" s="10"/>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A111" s="13"/>
+      <c r="B111" s="53"/>
+      <c r="C111" s="53"/>
+      <c r="D111" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E111" s="55"/>
+      <c r="F111" s="50"/>
+      <c r="G111" s="6"/>
+      <c r="H111" s="10"/>
+      <c r="I111" s="10"/>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A112" s="13"/>
+      <c r="B112" s="30"/>
+      <c r="C112" s="30"/>
+      <c r="D112" s="25" t="s">
         <v>144</v>
       </c>
-      <c r="E102" s="27"/>
-    </row>
-    <row r="103" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B103" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C103" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D103" s="26" t="s">
+      <c r="E112" s="26"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="6"/>
+      <c r="H112" s="10"/>
+      <c r="I112" s="10"/>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A113" s="13"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="28"/>
+      <c r="D113" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E113" s="26"/>
+      <c r="F113" s="50"/>
+      <c r="G113" s="6"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A114" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B114" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C114" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D114" s="25" t="s">
         <v>148</v>
       </c>
-      <c r="E103" s="27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E105" s="17"/>
+      <c r="E114" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="F114" s="10"/>
+      <c r="G114" s="25"/>
+      <c r="H114" s="10"/>
+      <c r="I114" s="10"/>
+    </row>
+    <row r="115" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="36"/>
+      <c r="B115" s="57" t="s">
+        <v>3</v>
+      </c>
+      <c r="C115" s="57"/>
+      <c r="D115" s="41" t="s">
+        <v>177</v>
+      </c>
+      <c r="E115" s="64"/>
+      <c r="F115" s="8"/>
+      <c r="G115" s="41"/>
+      <c r="H115" s="8"/>
+      <c r="I115" s="8"/>
+    </row>
+    <row r="116" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="14" t="s">
+        <v>139</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="E116" s="5"/>
+      <c r="F116" s="10"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="10"/>
+      <c r="I116" s="10"/>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A117" s="13"/>
+      <c r="B117" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C117" s="6"/>
+      <c r="D117" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="E117" s="22"/>
+      <c r="F117" s="50"/>
+      <c r="G117" s="6"/>
+      <c r="H117" s="10"/>
+      <c r="I117" s="10"/>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A118" s="13"/>
+      <c r="B118" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="E118" s="22"/>
+      <c r="F118" s="50"/>
+      <c r="G118" s="6"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B119" s="53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C119" s="53"/>
+      <c r="D119" s="54" t="s">
+        <v>146</v>
+      </c>
+      <c r="E119" s="55"/>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B120" s="53"/>
+      <c r="C120" s="53"/>
+      <c r="D120" s="54" t="s">
+        <v>147</v>
+      </c>
+      <c r="E120" s="55"/>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B121" s="30"/>
+      <c r="C121" s="30"/>
+      <c r="D121" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="E121" s="26"/>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B122" s="28"/>
+      <c r="C122" s="28"/>
+      <c r="D122" s="25" t="s">
+        <v>145</v>
+      </c>
+      <c r="E122" s="26"/>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B123" s="30" t="s">
+        <v>17</v>
+      </c>
+      <c r="C123" s="30" t="s">
+        <v>132</v>
+      </c>
+      <c r="D123" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="E123" s="26" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A124" s="36"/>
+      <c r="B124" s="51" t="s">
+        <v>3</v>
+      </c>
+      <c r="C124" s="51"/>
+      <c r="D124" s="41" t="s">
+        <v>178</v>
+      </c>
+      <c r="E124" s="64"/>
+      <c r="F124" s="8"/>
+      <c r="G124" s="41"/>
+      <c r="H124" s="8"/>
+      <c r="I124" s="8"/>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E126" s="17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I87"/>
-  <conditionalFormatting sqref="H59:H67">
-    <cfRule type="iconSet" priority="31">
+  <autoFilter ref="A1:I104"/>
+  <conditionalFormatting sqref="H70:H81">
+    <cfRule type="iconSet" priority="34">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2801,7 +3254,43 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H88:H95">
+  <conditionalFormatting sqref="H107:H114">
+    <cfRule type="iconSet" priority="5">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H82:H105">
+    <cfRule type="iconSet" priority="43">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H116:H118">
+    <cfRule type="iconSet" priority="44">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H106">
+    <cfRule type="iconSet" priority="3">
+      <iconSet iconSet="3Symbols2">
+        <cfvo type="percent" val="0"/>
+        <cfvo type="percent" val="33"/>
+        <cfvo type="percent" val="67"/>
+      </iconSet>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H115">
     <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
@@ -2810,17 +3299,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H68:H87">
-    <cfRule type="iconSet" priority="40">
-      <iconSet iconSet="3Symbols2">
-        <cfvo type="percent" val="0"/>
-        <cfvo type="percent" val="33"/>
-        <cfvo type="percent" val="67"/>
-      </iconSet>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H96:H98">
-    <cfRule type="iconSet" priority="41">
+  <conditionalFormatting sqref="H124">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Symbols2">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
